--- a/İHA Tablolar.xlsx
+++ b/İHA Tablolar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892B7DE1-F3F5-4C4D-B257-92A0713C82C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D934C21-5E31-49D3-A184-DEE04A9BAC34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sayfa6" sheetId="6" r:id="rId5"/>
     <sheet name="Sayfa5" sheetId="5" r:id="rId6"/>
     <sheet name="Sayfa7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sayfa8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="173">
   <si>
     <t>Adet</t>
   </si>
@@ -333,9 +334,6 @@
     <t>İHA Tipleri</t>
   </si>
   <si>
-    <t>Log</t>
-  </si>
-  <si>
     <t>Mid</t>
   </si>
   <si>
@@ -360,12 +358,6 @@
     <t>KV</t>
   </si>
   <si>
-    <t>Idle Ampers</t>
-  </si>
-  <si>
-    <t>Max Power</t>
-  </si>
-  <si>
     <t>Emax RS2205</t>
   </si>
   <si>
@@ -487,13 +479,85 @@
   </si>
   <si>
     <t>İniş Ayağı (Sol)</t>
+  </si>
+  <si>
+    <t>Boşta Amper</t>
+  </si>
+  <si>
+    <t>En Yüksek Güç</t>
+  </si>
+  <si>
+    <t>Çap</t>
+  </si>
+  <si>
+    <t>Adım</t>
+  </si>
+  <si>
+    <t>Göbek Çapı</t>
+  </si>
+  <si>
+    <t>Göbek Kalınlığı</t>
+  </si>
+  <si>
+    <t>Pervane Özellikleri</t>
+  </si>
+  <si>
+    <t>5"</t>
+  </si>
+  <si>
+    <t>4,5"</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>7,8mm</t>
+  </si>
+  <si>
+    <t>Bıçak Sayısı</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>17,8C</t>
+  </si>
+  <si>
+    <t>İHA'nın Beklenen Uçuş Parametreleri</t>
+  </si>
+  <si>
+    <t>Elektrik Gücü</t>
+  </si>
+  <si>
+    <t>İtki-Ağırlık</t>
+  </si>
+  <si>
+    <t>Sıcaklık</t>
+  </si>
+  <si>
+    <t>Yükle Beraber Güç</t>
+  </si>
+  <si>
+    <t>İtki</t>
+  </si>
+  <si>
+    <t>5 Dakika</t>
+  </si>
+  <si>
+    <t>182 Watt</t>
+  </si>
+  <si>
+    <t>49°C</t>
+  </si>
+  <si>
+    <t>3,41 g/W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +683,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -830,7 +908,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,20 +1009,26 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,16 +1054,16 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2029,46 +2113,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="47"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6">
         <v>1</v>
       </c>
@@ -2451,14 +2535,14 @@
       <c r="A1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -2468,7 +2552,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>41</v>
@@ -2477,7 +2561,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>44</v>
@@ -2544,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF38C121-F479-40FB-BFFC-C3A63D4BAC97}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,10 +2647,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>52</v>
@@ -2918,7 +3002,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C17" s="25">
         <v>60.8</v>
@@ -2933,11 +3017,11 @@
         <v>64</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N17" s="37" t="s">
         <v>52</v>
@@ -2954,7 +3038,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C18" s="25">
         <v>60.8</v>
@@ -3013,7 +3097,7 @@
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N20" s="25">
         <v>60.8</v>
@@ -3242,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A43772-EE52-4DD4-82DB-D5FF20CC3876}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M32" sqref="I28:M32"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,23 +3337,23 @@
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="4" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="35" t="s">
         <v>84</v>
       </c>
@@ -3290,7 +3374,7 @@
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="25">
         <v>3</v>
@@ -3399,7 +3483,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="26"/>
     </row>
@@ -3415,216 +3499,180 @@
       </c>
       <c r="D13" s="26"/>
     </row>
-    <row r="17" spans="9:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="54">
+        <v>2300</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="42">
+        <v>2800</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I20" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="43">
+        <v>700</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="42">
+        <v>900</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="I25" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="9:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="54">
+        <v>4000</v>
+      </c>
+      <c r="L26" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="9:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="I18" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="38">
-        <v>2300</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="M18" s="38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="9:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="52">
-        <v>2800</v>
-      </c>
-      <c r="L19" s="52" t="s">
+      <c r="M26" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I27" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="38">
+        <v>8000</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="39">
+        <v>6000</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="M19" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-    </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I21" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="K21" s="53">
-        <v>700</v>
-      </c>
-      <c r="L21" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="M21" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I22" s="51"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-    </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I23" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="52">
-        <v>900</v>
-      </c>
-      <c r="L23" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="M23" s="52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-    </row>
-    <row r="28" spans="9:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="I28" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I29" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="40">
-        <v>4000</v>
-      </c>
-      <c r="L29" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="M29" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I30" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="K30" s="39">
-        <v>8000</v>
-      </c>
-      <c r="L30" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I31" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="40" t="s">
+      <c r="K29" s="38">
+        <v>1300</v>
+      </c>
+      <c r="L29" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="K31" s="40">
-        <v>6000</v>
-      </c>
-      <c r="L31" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="M31" s="40" t="s">
+      <c r="M29" s="38" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I32" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" s="39">
-        <v>1300</v>
-      </c>
-      <c r="L32" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3764,7 +3812,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,21 +3822,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="37" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3800,7 +3846,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="25">
         <v>4</v>
@@ -3811,7 +3857,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="25">
         <v>5</v>
@@ -3864,4 +3910,136 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BF1004-30CD-4B8C-AB1A-83D0E7E707A4}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="53"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="25">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="53"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/İHA Tablolar.xlsx
+++ b/İHA Tablolar.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D934C21-5E31-49D3-A184-DEE04A9BAC34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D5BDED-9469-410F-A66F-229EE4A29D8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sayfa4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sayfa4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sayfa3" sheetId="3" r:id="rId4"/>
     <sheet name="Sayfa6" sheetId="6" r:id="rId5"/>
     <sheet name="Sayfa5" sheetId="5" r:id="rId6"/>
     <sheet name="Sayfa7" sheetId="7" r:id="rId7"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
   <si>
     <t>Adet</t>
   </si>
@@ -247,12 +247,6 @@
     <t>Uçuş Süresi</t>
   </si>
   <si>
-    <t>1200 gram</t>
-  </si>
-  <si>
-    <t>1500 gram</t>
-  </si>
-  <si>
     <t>0 gram</t>
   </si>
   <si>
@@ -551,6 +545,30 @@
   </si>
   <si>
     <t>3,41 g/W</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>1000 gram</t>
+  </si>
+  <si>
+    <t>1350 gram</t>
+  </si>
+  <si>
+    <t>Sağ Ön Pervane (5045)</t>
+  </si>
+  <si>
+    <t>Sol Ön Pervane (5045)</t>
+  </si>
+  <si>
+    <t>Sağ Arka Pervane (5045)</t>
+  </si>
+  <si>
+    <t>Sol Arka Pervane (5045)</t>
+  </si>
+  <si>
+    <t>Pervaneler</t>
   </si>
 </sst>
 </file>
@@ -908,7 +926,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1030,6 +1048,21 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,15 +1088,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2100,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D8283-7B8C-49E3-8066-CA0537BE067C}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2113,46 +2137,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="47"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="52"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="6">
         <v>1</v>
       </c>
@@ -2518,118 +2542,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41671F1E-70B0-48A9-A45A-BFE8CBF67E66}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF38C121-F479-40FB-BFFC-C3A63D4BAC97}">
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="7" width="13.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-    </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="25">
-        <v>2</v>
-      </c>
-      <c r="C3" s="25">
-        <v>4</v>
-      </c>
-      <c r="D3" s="25">
-        <v>2</v>
-      </c>
-      <c r="E3" s="25">
-        <v>4</v>
-      </c>
-      <c r="F3" s="25">
-        <v>5</v>
-      </c>
-      <c r="G3" s="25">
-        <f>SUM(B3:F3)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="25">
-        <v>5</v>
-      </c>
-      <c r="C4" s="25">
-        <v>2</v>
-      </c>
-      <c r="D4" s="25">
-        <v>5</v>
-      </c>
-      <c r="E4" s="25">
-        <v>5</v>
-      </c>
-      <c r="F4" s="25">
-        <v>2</v>
-      </c>
-      <c r="G4" s="25">
-        <f>SUM(B4:F4)</f>
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF38C121-F479-40FB-BFFC-C3A63D4BAC97}">
-  <dimension ref="A1:P30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="D1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,10 +2564,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>52</v>
@@ -2862,7 +2779,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="25">
         <v>3</v>
@@ -2962,7 +2879,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="25">
         <v>74.900000000000006</v>
@@ -2982,7 +2899,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="25">
         <v>60</v>
@@ -3002,7 +2919,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="25">
         <v>60.8</v>
@@ -3016,20 +2933,20 @@
       <c r="F17" s="25">
         <v>64</v>
       </c>
-      <c r="K17" s="37" t="s">
-        <v>145</v>
+      <c r="K17" s="48" t="s">
+        <v>143</v>
       </c>
       <c r="L17" s="25"/>
-      <c r="M17" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="N17" s="37" t="s">
+      <c r="M17" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="N17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="48" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3038,7 +2955,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="25">
         <v>60.8</v>
@@ -3052,12 +2969,12 @@
       <c r="F18" s="25">
         <v>64</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="48">
         <v>1</v>
       </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37" t="s">
-        <v>91</v>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="N18" s="25">
         <v>74.900000000000006</v>
@@ -3069,15 +2986,31 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="K19" s="37">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>17</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="49">
+        <v>5.5</v>
+      </c>
+      <c r="D19" s="25">
+        <v>143</v>
+      </c>
+      <c r="E19" s="25">
+        <v>86</v>
+      </c>
+      <c r="F19" s="25">
+        <v>31.5</v>
+      </c>
+      <c r="K19" s="48">
         <v>2</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37" t="s">
-        <v>92</v>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48" t="s">
+        <v>90</v>
       </c>
       <c r="N19" s="25">
         <v>60</v>
@@ -3089,15 +3022,31 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="K20" s="37">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="48">
+        <v>18</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D20" s="25">
+        <v>143</v>
+      </c>
+      <c r="E20" s="25">
+        <v>86</v>
+      </c>
+      <c r="F20" s="25">
+        <v>31.5</v>
+      </c>
+      <c r="K20" s="48">
         <v>3</v>
       </c>
       <c r="L20" s="25"/>
-      <c r="M20" s="37" t="s">
-        <v>146</v>
+      <c r="M20" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="N20" s="25">
         <v>60.8</v>
@@ -3109,15 +3058,31 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="K21" s="37">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="48">
+        <v>19</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D21" s="25">
+        <v>143</v>
+      </c>
+      <c r="E21" s="25">
+        <v>86</v>
+      </c>
+      <c r="F21" s="25">
+        <v>31.5</v>
+      </c>
+      <c r="K21" s="48">
         <v>3</v>
       </c>
       <c r="L21" s="25"/>
-      <c r="M21" s="37" t="s">
-        <v>82</v>
+      <c r="M21" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="N21" s="25">
         <v>29</v>
@@ -3129,14 +3094,30 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="K22" s="37">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>20</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="D22" s="25">
+        <v>143</v>
+      </c>
+      <c r="E22" s="25">
+        <v>86</v>
+      </c>
+      <c r="F22" s="25">
+        <v>31.5</v>
+      </c>
+      <c r="K22" s="48">
         <v>4</v>
       </c>
       <c r="L22" s="25"/>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="48" t="s">
         <v>47</v>
       </c>
       <c r="N22" s="25">
@@ -3152,11 +3133,11 @@
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="K23" s="37">
+      <c r="K23" s="48">
         <v>5</v>
       </c>
       <c r="L23" s="25"/>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="48" t="s">
         <v>56</v>
       </c>
       <c r="N23" s="25">
@@ -3172,11 +3153,11 @@
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="K24" s="37">
+      <c r="K24" s="48">
         <v>6</v>
       </c>
       <c r="L24" s="25"/>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="48" t="s">
         <v>57</v>
       </c>
       <c r="N24" s="14">
@@ -3192,11 +3173,11 @@
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="K25" s="37">
+      <c r="K25" s="48">
         <v>7</v>
       </c>
       <c r="L25" s="25"/>
-      <c r="M25" s="37" t="s">
+      <c r="M25" s="48" t="s">
         <v>58</v>
       </c>
       <c r="N25" s="25">
@@ -3212,12 +3193,12 @@
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="K26" s="37">
+      <c r="K26" s="48">
         <v>8</v>
       </c>
       <c r="L26" s="25"/>
-      <c r="M26" s="37" t="s">
-        <v>81</v>
+      <c r="M26" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="N26" s="25">
         <v>3</v>
@@ -3232,11 +3213,11 @@
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="K27" s="37">
+      <c r="K27" s="48">
         <v>9</v>
       </c>
       <c r="L27" s="25"/>
-      <c r="M27" s="37" t="s">
+      <c r="M27" s="48" t="s">
         <v>59</v>
       </c>
       <c r="N27" s="25" t="s">
@@ -3256,11 +3237,11 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="26"/>
-      <c r="K28" s="37">
+      <c r="K28" s="48">
         <v>10</v>
       </c>
       <c r="L28" s="25"/>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="48" t="s">
         <v>60</v>
       </c>
       <c r="N28" s="25">
@@ -3280,11 +3261,11 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="26"/>
-      <c r="K29" s="37">
+      <c r="K29" s="48">
         <v>11</v>
       </c>
       <c r="L29" s="25"/>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="48" t="s">
         <v>61</v>
       </c>
       <c r="N29" s="25">
@@ -3301,11 +3282,11 @@
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
-      <c r="K30" s="37">
+      <c r="K30" s="48">
         <v>12</v>
       </c>
       <c r="L30" s="25"/>
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="48" t="s">
         <v>63</v>
       </c>
       <c r="N30" s="25">
@@ -3318,7 +3299,132 @@
         <v>12.1</v>
       </c>
     </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K31" s="48">
+        <v>13</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" s="49">
+        <v>5.5</v>
+      </c>
+      <c r="O31" s="49">
+        <v>4</v>
+      </c>
+      <c r="P31" s="49">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41671F1E-70B0-48A9-A45A-BFE8CBF67E66}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="25">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25">
+        <v>4</v>
+      </c>
+      <c r="D3" s="25">
+        <v>2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25">
+        <v>5</v>
+      </c>
+      <c r="G3" s="25">
+        <f>SUM(B3:F3)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="25">
+        <v>5</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25">
+        <v>5</v>
+      </c>
+      <c r="E4" s="25">
+        <v>5</v>
+      </c>
+      <c r="F4" s="25">
+        <v>2</v>
+      </c>
+      <c r="G4" s="25">
+        <f>SUM(B4:F4)</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3328,7 +3434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A43772-EE52-4DD4-82DB-D5FF20CC3876}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -3343,30 +3449,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="35" t="s">
+      <c r="D2" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -3374,7 +3480,7 @@
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="25">
         <v>3</v>
@@ -3388,7 +3494,7 @@
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="25">
         <v>4</v>
@@ -3402,7 +3508,7 @@
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="25">
         <v>5</v>
@@ -3416,7 +3522,7 @@
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="25">
         <v>5</v>
@@ -3430,7 +3536,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="28">
         <f>SUM(B4:B7)</f>
@@ -3453,22 +3559,22 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>46</v>
@@ -3477,22 +3583,22 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>46</v>
@@ -3501,172 +3607,172 @@
     </row>
     <row r="17" spans="9:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J17" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="J18" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I18" s="55" t="s">
+      <c r="K18" s="45">
+        <v>2300</v>
+      </c>
+      <c r="L18" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="M18" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="K18" s="54">
-        <v>2300</v>
-      </c>
-      <c r="L18" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="54" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="9:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I19" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K19" s="42">
         <v>2800</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I20" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K20" s="43">
         <v>700</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I21" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K21" s="42">
         <v>900</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M21" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="9:13" ht="45" x14ac:dyDescent="0.25">
       <c r="I25" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25" s="40" t="s">
+      <c r="M25" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="L25" s="40" t="s">
+    </row>
+    <row r="26" spans="9:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="M25" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="9:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="45">
+        <v>4000</v>
+      </c>
+      <c r="L26" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="45" t="s">
         <v>126</v>
-      </c>
-      <c r="K26" s="54">
-        <v>4000</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="M26" s="54" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I27" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K27" s="38">
         <v>8000</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I28" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K28" s="39">
         <v>6000</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I29" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K29" s="38">
         <v>1300</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3684,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B213EC-620B-4C17-AB42-34AFF45E29FE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,10 +3819,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -3728,10 +3834,10 @@
         <v>67</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -3743,10 +3849,10 @@
         <v>68</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -3758,10 +3864,10 @@
         <v>69</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -3773,10 +3879,10 @@
         <v>70</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -3812,7 +3918,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,31 +3928,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="33" t="s">
+        <v>171</v>
+      </c>
       <c r="C2" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="25">
         <v>4</v>
@@ -3857,7 +3965,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="25">
         <v>5</v>
@@ -3868,7 +3976,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="25">
         <v>5</v>
@@ -3879,7 +3987,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="25">
         <v>5</v>
@@ -3890,7 +3998,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="28">
         <f>SUM(B4:B7)</f>
@@ -3917,7 +4025,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,14 +4036,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="53"/>
+      <c r="A1" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>161</v>
+      <c r="A2" s="47" t="s">
+        <v>159</v>
       </c>
       <c r="B2" s="25">
         <v>5045</v>
@@ -3943,56 +4051,56 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="53"/>
+      <c r="C9" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4000,28 +4108,28 @@
         <v>70</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="25">
         <v>1.4</v>
@@ -4029,10 +4137,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/İHA Tablolar.xlsx
+++ b/İHA Tablolar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D5BDED-9469-410F-A66F-229EE4A29D8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED1C06C-5BF9-435D-855A-83A2B6DCDB72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="191">
   <si>
     <t>Adet</t>
   </si>
@@ -569,13 +569,49 @@
   </si>
   <si>
     <t>Pervaneler</t>
+  </si>
+  <si>
+    <t>Takım İçerisindeki Görevi</t>
+  </si>
+  <si>
+    <t>İsim</t>
+  </si>
+  <si>
+    <t>Okul</t>
+  </si>
+  <si>
+    <t>Sınıfı</t>
+  </si>
+  <si>
+    <t>İletişim</t>
+  </si>
+  <si>
+    <t>Takım Kaptanı</t>
+  </si>
+  <si>
+    <t>Furkan Karaketir</t>
+  </si>
+  <si>
+    <t>Recep Tayyip Erdoğan Anadolu İmam Hatip Lisesi</t>
+  </si>
+  <si>
+    <t>10. Sınıf</t>
+  </si>
+  <si>
+    <t>Takım Üyesi</t>
+  </si>
+  <si>
+    <t>Halit Başbuğ</t>
+  </si>
+  <si>
+    <t>Furkan Kiraz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +753,24 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -926,7 +980,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,6 +1143,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4022,10 +4088,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BF1004-30CD-4B8C-AB1A-83D0E7E707A4}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,15 +4099,19 @@
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" customWidth="1"/>
+    <col min="18" max="18" width="48.42578125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>153</v>
       </c>
       <c r="B1" s="58"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>159</v>
       </c>
@@ -4049,7 +4119,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>149</v>
       </c>
@@ -4057,45 +4127,105 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P4" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>151</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P5" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="60">
+        <v>5511450968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P6" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="R6" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="S6" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="61">
+        <v>5541542293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>158</v>
       </c>
       <c r="B7" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P7" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="T7" s="60">
+        <v>5527315038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="58" t="s">
         <v>161</v>
       </c>
       <c r="D9" s="58"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="44" t="s">
         <v>165</v>
       </c>
@@ -4103,7 +4233,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" s="44" t="s">
         <v>70</v>
       </c>
@@ -4111,7 +4241,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" s="44" t="s">
         <v>162</v>
       </c>
@@ -4119,7 +4249,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" s="44" t="s">
         <v>164</v>
       </c>
@@ -4127,7 +4257,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" s="44" t="s">
         <v>163</v>
       </c>
@@ -4135,7 +4265,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" s="44" t="s">
         <v>166</v>
       </c>
@@ -4149,5 +4279,6 @@
     <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/İHA Tablolar.xlsx
+++ b/İHA Tablolar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED1C06C-5BF9-435D-855A-83A2B6DCDB72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B7664-46C4-4A02-9C2E-B8E352516C31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -328,9 +328,6 @@
     <t>İHA Tipleri</t>
   </si>
   <si>
-    <t>Mid</t>
-  </si>
-  <si>
     <t>Dayanıklılık</t>
   </si>
   <si>
@@ -547,9 +544,6 @@
     <t>3,41 g/W</t>
   </si>
   <si>
-    <t>Log</t>
-  </si>
-  <si>
     <t>1000 gram</t>
   </si>
   <si>
@@ -605,6 +599,12 @@
   </si>
   <si>
     <t>Furkan Kiraz</t>
+  </si>
+  <si>
+    <t>Tip 1</t>
+  </si>
+  <si>
+    <t>Tip 2</t>
   </si>
 </sst>
 </file>
@@ -1117,6 +1117,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,18 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2203,46 +2203,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="52"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="6">
         <v>1</v>
       </c>
@@ -2630,10 +2630,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>52</v>
@@ -2985,7 +2985,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="25">
         <v>60.8</v>
@@ -3000,11 +3000,11 @@
         <v>64</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N17" s="48" t="s">
         <v>52</v>
@@ -3021,7 +3021,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="25">
         <v>60.8</v>
@@ -3057,7 +3057,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="49">
         <v>5.5</v>
@@ -3093,7 +3093,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="25">
         <v>5.5</v>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N20" s="25">
         <v>60.8</v>
@@ -3129,7 +3129,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="25">
         <v>5.5</v>
@@ -3165,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" s="25">
         <v>5.5</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N31" s="49">
         <v>5.5</v>
@@ -3407,14 +3407,14 @@
       <c r="A1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -3424,7 +3424,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>41</v>
@@ -3433,7 +3433,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>44</v>
@@ -3515,17 +3515,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="35" t="s">
         <v>82</v>
       </c>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="25">
         <v>3</v>
@@ -3655,7 +3655,7 @@
         <v>93</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="26"/>
     </row>
@@ -3673,172 +3673,172 @@
     </row>
     <row r="17" spans="9:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J17" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="41" t="s">
-        <v>105</v>
-      </c>
       <c r="L17" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" s="41" t="s">
         <v>147</v>
-      </c>
-      <c r="M17" s="41" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I18" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>107</v>
       </c>
       <c r="K18" s="45">
         <v>2300</v>
       </c>
       <c r="L18" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="45" t="s">
         <v>108</v>
-      </c>
-      <c r="M18" s="45" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="9:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I19" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="42" t="s">
         <v>110</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>111</v>
       </c>
       <c r="K19" s="42">
         <v>2800</v>
       </c>
       <c r="L19" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="42" t="s">
         <v>112</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I20" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="43" t="s">
         <v>114</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>115</v>
       </c>
       <c r="K20" s="43">
         <v>700</v>
       </c>
       <c r="L20" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="43" t="s">
         <v>116</v>
-      </c>
-      <c r="M20" s="43" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I21" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="K21" s="42">
         <v>900</v>
       </c>
       <c r="L21" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="42" t="s">
         <v>120</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="9:13" ht="45" x14ac:dyDescent="0.25">
       <c r="I25" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="J25" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="K25" s="40" t="s">
+      <c r="L25" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="L25" s="40" t="s">
+      <c r="M25" s="40" t="s">
         <v>139</v>
-      </c>
-      <c r="M25" s="40" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="9:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I26" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K26" s="45">
         <v>4000</v>
       </c>
       <c r="L26" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="45" t="s">
         <v>125</v>
-      </c>
-      <c r="M26" s="45" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I27" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="38" t="s">
         <v>127</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>128</v>
       </c>
       <c r="K27" s="38">
         <v>8000</v>
       </c>
       <c r="L27" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="38" t="s">
         <v>129</v>
-      </c>
-      <c r="M27" s="38" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="28" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I28" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="39" t="s">
         <v>131</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>132</v>
       </c>
       <c r="K28" s="39">
         <v>6000</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I29" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K29" s="38">
         <v>1300</v>
       </c>
       <c r="L29" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29" s="38" t="s">
         <v>135</v>
-      </c>
-      <c r="M29" s="38" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3885,10 +3885,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -3983,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5C9E9C-ED64-4568-8252-ADB640F603F1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3994,21 +3994,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="58"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="33" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="25">
         <v>4</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="25">
         <v>5</v>
@@ -4053,13 +4053,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B7" s="25">
         <v>5</v>
       </c>
       <c r="C7" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="C8" s="29">
         <f>SUM(C4:C7)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4090,7 +4090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BF1004-30CD-4B8C-AB1A-83D0E7E707A4}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -4106,14 +4106,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="58"/>
+      <c r="A1" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="25">
         <v>5045</v>
@@ -4121,116 +4121,116 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="P4" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="R4" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="S4" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="T4" s="50" t="s">
         <v>181</v>
-      </c>
-      <c r="S4" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="T4" s="59" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="T5" s="51">
+        <v>5511450968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B6" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="P6" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q6" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="R6" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="S6" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="R5" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="S5" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="T5" s="60">
-        <v>5511450968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="T6" s="52">
+        <v>5541542293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>157</v>
-      </c>
-      <c r="P6" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="R6" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="S6" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="T6" s="61">
-        <v>5541542293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>158</v>
       </c>
       <c r="B7" s="25">
         <v>3</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="Q7" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="R7" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="S7" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="T7" s="60">
+      <c r="R7" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="T7" s="51">
         <v>5527315038</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="58"/>
+      <c r="C9" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -4238,28 +4238,28 @@
         <v>70</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="25">
         <v>1.4</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/İHA Tablolar.xlsx
+++ b/İHA Tablolar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Desktop\IHA-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Documents\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984B7664-46C4-4A02-9C2E-B8E352516C31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7597BB-A1EA-4F8B-841C-1DE677B05BBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -32,65 +32,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="181">
   <si>
     <t>Adet</t>
   </si>
   <si>
-    <t>Motor RS2205 2300KV</t>
-  </si>
-  <si>
     <t>Toplam Ağırlık (gr)</t>
   </si>
   <si>
-    <t>Toplam</t>
-  </si>
-  <si>
-    <t>Kumanda FlySky I6 Alıcısı Yanında (Verilen Ağırlık Alıcının Ağırlığıdır)</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Pervane Seti 5045, 3 Yapraklı</t>
-  </si>
-  <si>
     <t>Alınma Durumu</t>
   </si>
   <si>
-    <t>Alınmadı</t>
-  </si>
-  <si>
-    <t>F4 Pro V2 Uçuş Kontrolcü</t>
-  </si>
-  <si>
     <t>Ürün Türkiye</t>
   </si>
   <si>
-    <t>Lipo Şarj Aleti</t>
-  </si>
-  <si>
-    <t>önemsiz</t>
-  </si>
-  <si>
     <t>Toplam Fiyat(K.D.V. Dahil)</t>
   </si>
   <si>
-    <t>M8N GPS</t>
-  </si>
-  <si>
-    <t>XBee Explorer USB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XBee 2 mW </t>
-  </si>
-  <si>
-    <t>Racerstar REV35 35A BLheli_S 3-6 S 4 1 Esc Dshot600</t>
-  </si>
-  <si>
-    <t>East Marine Termal Devre Kesici-175Amper</t>
-  </si>
-  <si>
     <t>Görev Analizi ve Literatür Taraması</t>
   </si>
   <si>
@@ -139,18 +97,9 @@
     <t>İP* No</t>
   </si>
   <si>
-    <t>Karbon Fiber Gövde</t>
-  </si>
-  <si>
     <t>291,5 </t>
   </si>
   <si>
-    <t>708.28</t>
-  </si>
-  <si>
-    <t>Batarya 3S 4000 mAh 35C (+1 Tane Yedek)</t>
-  </si>
-  <si>
     <t>İHA Olası Gövde Malzemeleri</t>
   </si>
   <si>
@@ -220,9 +169,6 @@
     <t>GPS Modülü (M8N)</t>
   </si>
   <si>
-    <t>MG90S Servo</t>
-  </si>
-  <si>
     <t>Görev Mekanizması Motor (MG90S)</t>
   </si>
   <si>
@@ -605,6 +551,30 @@
   </si>
   <si>
     <t>Tip 2</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>GPS Yükseltici</t>
+  </si>
+  <si>
+    <t>https://www.kompozitshop.com/karbon-fiber-plaka-t15mm-cnc-kesimli</t>
+  </si>
+  <si>
+    <t>https://www.kompozitshop.com/karbon-fiber-boru-3k-disic-cap5mm4mm</t>
+  </si>
+  <si>
+    <t>https://www.robotistan.com/abg-175-mm-mavi-abs-filament</t>
+  </si>
+  <si>
+    <t>ABS Flament</t>
+  </si>
+  <si>
+    <t>Şase + İniş Ayakları</t>
+  </si>
+  <si>
+    <t>EMAX RS2205 CCW</t>
   </si>
 </sst>
 </file>
@@ -980,7 +950,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1155,6 +1125,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1169,15 +1145,6 @@
     <cellStyle name="Vurgu5" xfId="8" builtinId="45"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1258,6 +1225,15 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1533,23 +1509,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B1:E15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Toplam Ağırlık (gr)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Adet" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Adet" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo2" displayName="Tablo2" ref="A1:A12" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo2" displayName="Tablo2" ref="A1:A14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:A14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alınma Durumu" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alınma Durumu" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1820,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,80 +1806,74 @@
     <col min="2" max="2" width="63.140625" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="16">
-        <v>233.17</v>
+        <v>179</v>
+      </c>
+      <c r="C2" s="63">
+        <v>1098.32</v>
       </c>
       <c r="D2" s="17">
-        <v>18</v>
-      </c>
-      <c r="E2" s="16">
         <v>1</v>
       </c>
+      <c r="E2" s="64" t="s">
+        <v>175</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="16">
+        <v>76.98</v>
+      </c>
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
-        <v>318.32</v>
-      </c>
-      <c r="D3" s="17">
-        <v>120</v>
-      </c>
-      <c r="E3" s="16">
-        <v>4</v>
+      <c r="E3" s="64" t="s">
+        <v>176</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="16" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="C4" s="16">
-        <v>24.88</v>
+        <v>109</v>
       </c>
       <c r="D4" s="17">
-        <v>22</v>
-      </c>
-      <c r="E4" s="16">
         <v>1</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>177</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="5"/>
@@ -1917,21 +1887,13 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="18">
-        <v>502.21</v>
-      </c>
-      <c r="D5" s="17">
-        <v>14.9</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="2"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1944,21 +1906,11 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="2"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1971,21 +1923,11 @@
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="16">
-        <v>259.99</v>
-      </c>
-      <c r="D7" s="17">
-        <v>33</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1998,21 +1940,11 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16">
-        <v>443.75</v>
-      </c>
-      <c r="D8" s="21">
-        <v>13</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="2"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2025,21 +1957,11 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="15">
-        <v>331.82</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="2"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2052,21 +1974,11 @@
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15">
-        <v>576</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2079,21 +1991,11 @@
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="15">
-        <v>72.98</v>
-      </c>
-      <c r="D11" s="20">
-        <v>10</v>
-      </c>
-      <c r="E11" s="15">
-        <v>2</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2106,66 +2008,31 @@
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="15">
-        <v>259.60000000000002</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="20">
-        <v>680</v>
-      </c>
-      <c r="D13" s="20">
-        <v>75</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="15">
-        <v>20.7</v>
-      </c>
-      <c r="D14" s="20">
-        <v>12.1</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="22">
-        <f>SUBTOTAL(109,C2:C14)</f>
-        <v>3723.4199999999996</v>
-      </c>
-      <c r="D15" s="23">
-        <f>SUBTOTAL(109,D2:D14)</f>
-        <v>318</v>
-      </c>
-      <c r="E15" s="22">
-        <f>SUBTOTAL(109,E2:E14)</f>
-        <v>19</v>
-      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="13"/>
@@ -2177,11 +2044,16 @@
       <c r="E21" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{37013FC0-AE48-4A1F-B7F7-12FF22F75066}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{1E6F1D4E-5B70-4361-93D9-C7090B515A77}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{2AF90BE0-0DE8-47C1-AD75-590D344F09D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2204,16 +2076,16 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
@@ -2321,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -2356,10 +2228,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2391,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2426,10 +2298,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2461,10 +2333,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2496,10 +2368,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2531,10 +2403,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8"/>
@@ -2566,10 +2438,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2630,22 +2502,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -2657,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C2" s="25">
         <v>29</v>
@@ -2681,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C3" s="25">
         <v>29</v>
@@ -2705,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C4" s="25">
         <v>29</v>
@@ -2729,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C5" s="25">
         <v>29</v>
@@ -2753,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C6" s="25">
         <v>18</v>
@@ -2777,7 +2649,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C7" s="25">
         <v>13</v>
@@ -2801,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C8" s="14">
         <v>14.9</v>
@@ -2825,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C9" s="25">
         <v>0.65</v>
@@ -2845,7 +2717,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C10" s="25">
         <v>3</v>
@@ -2865,10 +2737,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D11" s="25">
         <v>1.8</v>
@@ -2885,7 +2757,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C12" s="25">
         <v>10</v>
@@ -2905,7 +2777,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C13" s="25">
         <v>5</v>
@@ -2925,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C14" s="25">
         <v>12.1</v>
@@ -2945,7 +2817,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C15" s="25">
         <v>74.900000000000006</v>
@@ -2965,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C16" s="25">
         <v>60</v>
@@ -2985,7 +2857,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C17" s="25">
         <v>60.8</v>
@@ -3000,20 +2872,20 @@
         <v>64</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="48" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="N17" s="48" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="O17" s="48" t="s">
         <v>0</v>
       </c>
       <c r="P17" s="48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3021,7 +2893,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C18" s="25">
         <v>60.8</v>
@@ -3040,7 +2912,7 @@
       </c>
       <c r="L18" s="48"/>
       <c r="M18" s="48" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="N18" s="25">
         <v>74.900000000000006</v>
@@ -3057,7 +2929,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C19" s="49">
         <v>5.5</v>
@@ -3076,7 +2948,7 @@
       </c>
       <c r="L19" s="48"/>
       <c r="M19" s="48" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="N19" s="25">
         <v>60</v>
@@ -3093,7 +2965,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C20" s="25">
         <v>5.5</v>
@@ -3112,7 +2984,7 @@
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="48" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="N20" s="25">
         <v>60.8</v>
@@ -3129,7 +3001,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C21" s="25">
         <v>5.5</v>
@@ -3148,7 +3020,7 @@
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="48" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="N21" s="25">
         <v>29</v>
@@ -3165,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C22" s="25">
         <v>5.5</v>
@@ -3184,7 +3056,7 @@
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="48" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N22" s="25">
         <v>18</v>
@@ -3204,7 +3076,7 @@
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="48" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N23" s="25">
         <v>13</v>
@@ -3224,7 +3096,7 @@
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="48" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N24" s="14">
         <v>14.9</v>
@@ -3244,7 +3116,7 @@
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="48" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="N25" s="25">
         <v>0.65</v>
@@ -3264,7 +3136,7 @@
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="48" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="N26" s="25">
         <v>3</v>
@@ -3284,16 +3156,16 @@
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="48" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="O27" s="25">
         <v>1</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3308,7 +3180,7 @@
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="48" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N28" s="25">
         <v>10</v>
@@ -3332,7 +3204,7 @@
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="48" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="N29" s="25">
         <v>5</v>
@@ -3353,7 +3225,7 @@
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="48" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N30" s="25">
         <v>12.1</v>
@@ -3371,7 +3243,7 @@
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="48" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="N31" s="49">
         <v>5.5</v>
@@ -3405,10 +3277,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
@@ -3418,30 +3290,30 @@
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B3" s="25">
         <v>2</v>
@@ -3465,7 +3337,7 @@
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B4" s="25">
         <v>5</v>
@@ -3516,10 +3388,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
@@ -3527,18 +3399,18 @@
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="35" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -3546,7 +3418,7 @@
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B4" s="25">
         <v>3</v>
@@ -3560,7 +3432,7 @@
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B5" s="25">
         <v>4</v>
@@ -3574,7 +3446,7 @@
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B6" s="25">
         <v>5</v>
@@ -3588,7 +3460,7 @@
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B7" s="25">
         <v>5</v>
@@ -3602,7 +3474,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B8" s="28">
         <f>SUM(B4:B7)</f>
@@ -3625,220 +3497,220 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D13" s="26"/>
     </row>
     <row r="17" spans="9:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I17" s="41" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I18" s="46" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K18" s="45">
         <v>2300</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="M18" s="45" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="9:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I19" s="41" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="K19" s="42">
         <v>2800</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I20" s="41" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K20" s="43">
         <v>700</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I21" s="41" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="K21" s="42">
         <v>900</v>
       </c>
       <c r="L21" s="42" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="M21" s="42" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="9:13" ht="45" x14ac:dyDescent="0.25">
       <c r="I25" s="40" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K25" s="40" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="L25" s="40" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="M25" s="40" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="9:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I26" s="46" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="K26" s="45">
         <v>4000</v>
       </c>
       <c r="L26" s="45" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="M26" s="45" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I27" s="40" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K27" s="38">
         <v>8000</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I28" s="40" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="K28" s="39">
         <v>6000</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I29" s="40" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K29" s="38">
         <v>1300</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3870,10 +3742,10 @@
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" s="27" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -3882,13 +3754,13 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -3897,13 +3769,13 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -3912,13 +3784,13 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -3927,13 +3799,13 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -3942,13 +3814,13 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -3983,7 +3855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5C9E9C-ED64-4568-8252-ADB640F603F1}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -3995,32 +3867,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="62"/>
       <c r="B2" s="33" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B4" s="25">
         <v>4</v>
@@ -4031,7 +3903,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B5" s="25">
         <v>5</v>
@@ -4042,7 +3914,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B6" s="25">
         <v>5</v>
@@ -4053,7 +3925,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B7" s="25">
         <v>5</v>
@@ -4064,7 +3936,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B8" s="28">
         <f>SUM(B4:B7)</f>
@@ -4107,13 +3979,13 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B1" s="62"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B2" s="25">
         <v>5045</v>
@@ -4121,53 +3993,53 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="P4" s="50" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="50" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="S4" s="50" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="T4" s="50" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="P5" s="53" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="51" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="R5" s="51" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="S5" s="51" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="T5" s="51">
         <v>5511450968</v>
@@ -4175,22 +4047,22 @@
     </row>
     <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="P6" s="53" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="52" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="R6" s="52" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="S6" s="52" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="T6" s="52">
         <v>5541542293</v>
@@ -4198,22 +4070,22 @@
     </row>
     <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B7" s="25">
         <v>3</v>
       </c>
       <c r="P7" s="53" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="51" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="R7" s="51" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="S7" s="51" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="T7" s="51">
         <v>5527315038</v>
@@ -4221,45 +4093,45 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="62" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="44" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" s="44" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" s="44" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" s="44" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" s="44" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D14" s="25">
         <v>1.4</v>
@@ -4267,10 +4139,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" s="44" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/İHA Tablolar.xlsx
+++ b/İHA Tablolar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Documents\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7597BB-A1EA-4F8B-841C-1DE677B05BBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF1255-B857-4A65-9C71-7C3CD61B5FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="1725" windowWidth="21570" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="184">
   <si>
     <t>Adet</t>
   </si>
@@ -556,32 +556,41 @@
     <t>Link</t>
   </si>
   <si>
-    <t>GPS Yükseltici</t>
-  </si>
-  <si>
     <t>https://www.kompozitshop.com/karbon-fiber-plaka-t15mm-cnc-kesimli</t>
   </si>
   <si>
-    <t>https://www.kompozitshop.com/karbon-fiber-boru-3k-disic-cap5mm4mm</t>
-  </si>
-  <si>
     <t>https://www.robotistan.com/abg-175-mm-mavi-abs-filament</t>
   </si>
   <si>
     <t>ABS Flament</t>
   </si>
   <si>
-    <t>Şase + İniş Ayakları</t>
-  </si>
-  <si>
     <t>EMAX RS2205 CCW</t>
+  </si>
+  <si>
+    <t>F4 Pro v2</t>
+  </si>
+  <si>
+    <t>https://www.f1depo.com/EMAX-RS2205-2300kv-Fircasiz-Motor-CCW-Fpv-Yaris-Uyumludur,PR-2183.html</t>
+  </si>
+  <si>
+    <t>EMAX RS2205 CW</t>
+  </si>
+  <si>
+    <t>https://www.f1depo.com/EMAX-RS2205-2300kv-Fircasiz-Motor-CW-Fpv-Yaris-Uyumludur,PR-2182.html</t>
+  </si>
+  <si>
+    <t>https://www.motorobit.com/urun/f4-v2-pro-ucus-kontrol-karti</t>
+  </si>
+  <si>
+    <t>Şase + İniş Ayakları  Toplam(40cmx40cm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +750,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -950,7 +965,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1099,6 +1114,21 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,12 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1145,6 +1169,15 @@
     <cellStyle name="Vurgu5" xfId="8" builtinId="45"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1225,15 +1258,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1509,23 +1533,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="B1:E15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B1:E15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Adet" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ürün Türkiye" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Toplam Fiyat(K.D.V. Dahil)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Adet" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Link" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo2" displayName="Tablo2" ref="A1:A14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tablo2" displayName="Tablo2" ref="A1:A14" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alınma Durumu" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Alınma Durumu" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1796,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,32 +1856,32 @@
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="63">
+        <v>183</v>
+      </c>
+      <c r="C2" s="54">
         <v>1098.32</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="64" t="s">
-        <v>175</v>
+      <c r="E2" s="55" t="s">
+        <v>174</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" s="16">
-        <v>76.98</v>
+        <v>109</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="64" t="s">
-        <v>176</v>
+      <c r="E3" s="55" t="s">
+        <v>175</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1866,14 +1890,12 @@
       <c r="B4" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="16">
-        <v>109</v>
-      </c>
+      <c r="C4" s="18"/>
       <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>177</v>
+      <c r="E4" s="55" t="s">
+        <v>182</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="5"/>
@@ -1889,11 +1911,15 @@
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
+        <v>177</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="57">
+        <v>2</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>179</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1905,12 +1931,18 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="58">
+        <v>2</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>181</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1927,7 +1959,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2046,14 +2078,16 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{37013FC0-AE48-4A1F-B7F7-12FF22F75066}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{1E6F1D4E-5B70-4361-93D9-C7090B515A77}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{2AF90BE0-0DE8-47C1-AD75-590D344F09D9}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{2AF90BE0-0DE8-47C1-AD75-590D344F09D9}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{3BEB9211-96F2-4767-B8A2-30B096491CDF}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{C1EE63F1-ED97-468C-BAA4-E4DFD8302CC6}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{3CE58E6E-781F-490B-8CA4-6C17AF5231FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="2">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2075,46 +2109,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="61"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="6">
         <v>1</v>
       </c>
@@ -2483,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF38C121-F479-40FB-BFFC-C3A63D4BAC97}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,14 +3313,14 @@
       <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -3387,17 +3421,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="35" t="s">
         <v>64</v>
       </c>
@@ -3866,16 +3900,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="62"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="33" t="s">
         <v>171</v>
       </c>
@@ -3978,10 +4012,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
@@ -4092,10 +4126,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="62"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="44" t="s">

--- a/İHA Tablolar.xlsx
+++ b/İHA Tablolar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Documents\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF1255-B857-4A65-9C71-7C3CD61B5FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C290A4AB-8501-4EB3-A829-3E6299CBE778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="1725" windowWidth="21570" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sayfa7" sheetId="7" r:id="rId7"/>
     <sheet name="Sayfa8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="185">
   <si>
     <t>Adet</t>
   </si>
@@ -490,12 +490,6 @@
     <t>3,41 g/W</t>
   </si>
   <si>
-    <t>1000 gram</t>
-  </si>
-  <si>
-    <t>1350 gram</t>
-  </si>
-  <si>
     <t>Sağ Ön Pervane (5045)</t>
   </si>
   <si>
@@ -584,13 +578,22 @@
   </si>
   <si>
     <t>Şase + İniş Ayakları  Toplam(40cmx40cm)</t>
+  </si>
+  <si>
+    <t>İHA'nın Planlanan Uçuş Parametreleri</t>
+  </si>
+  <si>
+    <t>1200 gram</t>
+  </si>
+  <si>
+    <t>1500 gram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +761,24 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -965,7 +986,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1035,9 +1056,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,12 +1063,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -1156,17 +1168,29 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="%20 - Vurgu1" xfId="7" builtinId="30"/>
-    <cellStyle name="%40 - Vurgu1" xfId="2" builtinId="31"/>
-    <cellStyle name="%60 - Vurgu4" xfId="3" builtinId="44"/>
-    <cellStyle name="İyi" xfId="4" builtinId="26"/>
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
-    <cellStyle name="Kötü" xfId="5" builtinId="27"/>
+    <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nötr" xfId="6" builtinId="28"/>
-    <cellStyle name="Vurgu5" xfId="8" builtinId="45"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1849,30 +1873,30 @@
         <v>0</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="54">
+        <v>181</v>
+      </c>
+      <c r="C2" s="51">
         <v>1098.32</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="55" t="s">
-        <v>174</v>
+      <c r="E2" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" s="16">
         <v>109</v>
@@ -1880,22 +1904,22 @@
       <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>175</v>
+      <c r="E3" s="52" t="s">
+        <v>173</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>182</v>
+      <c r="E4" s="52" t="s">
+        <v>180</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="5"/>
@@ -1911,14 +1935,14 @@
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="54">
+        <v>2</v>
+      </c>
+      <c r="E5" s="53" t="s">
         <v>177</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="57">
-        <v>2</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>179</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="5"/>
@@ -1934,14 +1958,14 @@
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="58">
+      <c r="D6" s="55">
         <v>2</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>181</v>
+      <c r="E6" s="52" t="s">
+        <v>179</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="5"/>
@@ -1959,7 +1983,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2109,46 +2133,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="61"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="58"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="6">
         <v>1</v>
       </c>
@@ -2517,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF38C121-F479-40FB-BFFC-C3A63D4BAC97}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView topLeftCell="D13" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -2535,22 +2559,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="4"/>
@@ -2559,10 +2583,10 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="25">
@@ -2583,10 +2607,10 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="25">
@@ -2607,10 +2631,10 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="25">
@@ -2631,10 +2655,10 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="25">
@@ -2655,10 +2679,10 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="25">
@@ -2679,10 +2703,10 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="25">
@@ -2703,10 +2727,10 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="14">
@@ -2727,10 +2751,10 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="25">
@@ -2747,10 +2771,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="25">
@@ -2767,10 +2791,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="34">
         <v>9</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -2787,10 +2811,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="34">
         <v>10</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="25">
@@ -2807,10 +2831,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+      <c r="A13" s="34">
         <v>11</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="25">
@@ -2827,10 +2851,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="A14" s="34">
         <v>12</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="25">
@@ -2847,10 +2871,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="34" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="25">
@@ -2867,10 +2891,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="34" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="25">
@@ -2887,10 +2911,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="34" t="s">
         <v>126</v>
       </c>
       <c r="C17" s="25">
@@ -2905,28 +2929,28 @@
       <c r="F17" s="25">
         <v>64</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="45" t="s">
         <v>124</v>
       </c>
       <c r="L17" s="25"/>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="N17" s="48" t="s">
+      <c r="N17" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="48" t="s">
+      <c r="O17" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="48" t="s">
+      <c r="P17" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="34" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="25">
@@ -2941,11 +2965,11 @@
       <c r="F18" s="25">
         <v>64</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="45">
         <v>1</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48" t="s">
+      <c r="L18" s="45"/>
+      <c r="M18" s="45" t="s">
         <v>71</v>
       </c>
       <c r="N18" s="25">
@@ -2959,13 +2983,13 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="45">
         <v>17</v>
       </c>
-      <c r="B19" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="49">
+      <c r="B19" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="46">
         <v>5.5</v>
       </c>
       <c r="D19" s="25">
@@ -2977,11 +3001,11 @@
       <c r="F19" s="25">
         <v>31.5</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="45">
         <v>2</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48" t="s">
+      <c r="L19" s="45"/>
+      <c r="M19" s="45" t="s">
         <v>72</v>
       </c>
       <c r="N19" s="25">
@@ -2995,11 +3019,11 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="A20" s="45">
         <v>18</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>156</v>
+      <c r="B20" s="45" t="s">
+        <v>154</v>
       </c>
       <c r="C20" s="25">
         <v>5.5</v>
@@ -3013,11 +3037,11 @@
       <c r="F20" s="25">
         <v>31.5</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="45">
         <v>3</v>
       </c>
       <c r="L20" s="25"/>
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="45" t="s">
         <v>125</v>
       </c>
       <c r="N20" s="25">
@@ -3031,11 +3055,11 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="45">
         <v>19</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>155</v>
+      <c r="B21" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="C21" s="25">
         <v>5.5</v>
@@ -3049,11 +3073,11 @@
       <c r="F21" s="25">
         <v>31.5</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="45">
         <v>3</v>
       </c>
       <c r="L21" s="25"/>
-      <c r="M21" s="48" t="s">
+      <c r="M21" s="45" t="s">
         <v>62</v>
       </c>
       <c r="N21" s="25">
@@ -3067,11 +3091,11 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+      <c r="A22" s="45">
         <v>20</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>157</v>
+      <c r="B22" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="C22" s="25">
         <v>5.5</v>
@@ -3085,11 +3109,11 @@
       <c r="F22" s="25">
         <v>31.5</v>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="45">
         <v>4</v>
       </c>
       <c r="L22" s="25"/>
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="45" t="s">
         <v>30</v>
       </c>
       <c r="N22" s="25">
@@ -3105,11 +3129,11 @@
     <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="K23" s="48">
+      <c r="K23" s="45">
         <v>5</v>
       </c>
       <c r="L23" s="25"/>
-      <c r="M23" s="48" t="s">
+      <c r="M23" s="45" t="s">
         <v>39</v>
       </c>
       <c r="N23" s="25">
@@ -3125,11 +3149,11 @@
     <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="K24" s="48">
+      <c r="K24" s="45">
         <v>6</v>
       </c>
       <c r="L24" s="25"/>
-      <c r="M24" s="48" t="s">
+      <c r="M24" s="45" t="s">
         <v>40</v>
       </c>
       <c r="N24" s="14">
@@ -3145,11 +3169,11 @@
     <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="K25" s="48">
+      <c r="K25" s="45">
         <v>7</v>
       </c>
       <c r="L25" s="25"/>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="45" t="s">
         <v>41</v>
       </c>
       <c r="N25" s="25">
@@ -3165,11 +3189,11 @@
     <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="K26" s="48">
+      <c r="K26" s="45">
         <v>8</v>
       </c>
       <c r="L26" s="25"/>
-      <c r="M26" s="48" t="s">
+      <c r="M26" s="45" t="s">
         <v>61</v>
       </c>
       <c r="N26" s="25">
@@ -3185,11 +3209,11 @@
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="K27" s="48">
+      <c r="K27" s="45">
         <v>9</v>
       </c>
       <c r="L27" s="25"/>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="45" t="s">
         <v>42</v>
       </c>
       <c r="N27" s="25" t="s">
@@ -3203,17 +3227,17 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="26"/>
-      <c r="K28" s="48">
+      <c r="K28" s="45">
         <v>10</v>
       </c>
       <c r="L28" s="25"/>
-      <c r="M28" s="48" t="s">
+      <c r="M28" s="45" t="s">
         <v>43</v>
       </c>
       <c r="N28" s="25">
@@ -3233,11 +3257,11 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="26"/>
-      <c r="K29" s="48">
+      <c r="K29" s="45">
         <v>11</v>
       </c>
       <c r="L29" s="25"/>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="45" t="s">
         <v>44</v>
       </c>
       <c r="N29" s="25">
@@ -3254,11 +3278,11 @@
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
-      <c r="K30" s="48">
+      <c r="K30" s="45">
         <v>12</v>
       </c>
       <c r="L30" s="25"/>
-      <c r="M30" s="48" t="s">
+      <c r="M30" s="45" t="s">
         <v>45</v>
       </c>
       <c r="N30" s="25">
@@ -3272,20 +3296,20 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K31" s="48">
+      <c r="K31" s="45">
         <v>13</v>
       </c>
       <c r="L31" s="25"/>
-      <c r="M31" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="N31" s="49">
+      <c r="M31" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="N31" s="46">
         <v>5.5</v>
       </c>
-      <c r="O31" s="49">
+      <c r="O31" s="46">
         <v>4</v>
       </c>
-      <c r="P31" s="49">
+      <c r="P31" s="46">
         <v>22</v>
       </c>
     </row>
@@ -3310,43 +3334,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="25">
@@ -3370,7 +3394,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="25">
@@ -3406,7 +3430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A43772-EE52-4DD4-82DB-D5FF20CC3876}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -3421,37 +3445,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="35" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="25">
@@ -3465,7 +3489,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="25">
@@ -3479,7 +3503,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="25">
@@ -3493,7 +3517,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="25">
@@ -3507,18 +3531,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <f>SUM(B4:B7)</f>
         <v>17</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <f>SUM(C4:C7)</f>
         <v>11</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <f>SUM(D4:D7)</f>
         <v>14</v>
       </c>
@@ -3530,19 +3554,19 @@
       <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -3554,7 +3578,7 @@
       <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -3566,7 +3590,7 @@
       <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -3578,172 +3602,172 @@
       <c r="D13" s="26"/>
     </row>
     <row r="17" spans="9:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="38" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="42">
         <v>2300</v>
       </c>
-      <c r="L18" s="45" t="s">
+      <c r="L18" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="42" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="9:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="39">
         <v>2800</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="40">
         <v>700</v>
       </c>
-      <c r="L20" s="43" t="s">
+      <c r="L20" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="43" t="s">
+      <c r="M20" s="40" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="39">
         <v>900</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="39" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="9:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="40" t="s">
+      <c r="L25" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="37" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="9:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="42">
         <v>4000</v>
       </c>
-      <c r="L26" s="45" t="s">
+      <c r="L26" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="45" t="s">
+      <c r="M26" s="42" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="35">
         <v>8000</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="36">
         <v>6000</v>
       </c>
-      <c r="L28" s="39" t="s">
+      <c r="L28" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M28" s="39" t="s">
+      <c r="M28" s="36" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="35">
         <v>1300</v>
       </c>
-      <c r="L29" s="38" t="s">
+      <c r="L29" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="M29" s="38" t="s">
+      <c r="M29" s="35" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3762,39 +3786,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B213EC-620B-4C17-AB42-34AFF45E29FE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>153</v>
+      <c r="A2" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -3802,14 +3819,14 @@
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>56</v>
+      <c r="A3" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>184</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -3817,14 +3834,14 @@
       <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>54</v>
+      <c r="A4" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -3832,14 +3849,14 @@
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>57</v>
+      <c r="A5" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -3847,14 +3864,14 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>59</v>
+      <c r="A6" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -3862,9 +3879,15 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>59</v>
+      </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -3900,32 +3923,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="67"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>172</v>
+      <c r="A2" s="64"/>
+      <c r="B2" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="25">
@@ -3936,7 +3959,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="25">
@@ -3947,7 +3970,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="34" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="25">
@@ -3958,7 +3981,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="25">
@@ -3969,14 +3992,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <f>SUM(B4:B7)</f>
         <v>19</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <f>SUM(C4:C7)</f>
         <v>18</v>
       </c>
@@ -4012,13 +4035,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="64"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>140</v>
       </c>
       <c r="B2" s="25">
@@ -4026,7 +4049,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -4034,105 +4057,105 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="P4" s="50" t="s">
+      <c r="P4" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="S4" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="R4" s="50" t="s">
+      <c r="T4" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="S4" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="T4" s="50" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="5" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="41" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="R5" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="S5" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="R5" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="S5" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="T5" s="51">
+      <c r="T5" s="48">
         <v>5511450968</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="41" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q6" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="R6" s="52" t="s">
+      <c r="P6" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="Q6" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="T6" s="52">
+      <c r="R6" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="T6" s="49">
         <v>5541542293</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
         <v>139</v>
       </c>
       <c r="B7" s="25">
         <v>3</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="R7" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="S7" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="T7" s="51">
+      <c r="R7" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="T7" s="48">
         <v>5527315038</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="64"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="41" t="s">
         <v>146</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -4140,7 +4163,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="41" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -4148,7 +4171,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>143</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -4156,7 +4179,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="41" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -4164,7 +4187,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="41" t="s">
         <v>144</v>
       </c>
       <c r="D14" s="25">
@@ -4172,7 +4195,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="41" t="s">
         <v>147</v>
       </c>
       <c r="D15" s="25" t="s">

--- a/İHA Tablolar.xlsx
+++ b/İHA Tablolar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furka\Documents\IHA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C290A4AB-8501-4EB3-A829-3E6299CBE778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B2CE28-C9CE-4FCF-828C-8120A4753FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Sayfa7" sheetId="7" r:id="rId7"/>
     <sheet name="Sayfa8" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk76385452" localSheetId="2">Sayfa4!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="180">
   <si>
     <t>Adet</t>
   </si>
@@ -97,9 +100,6 @@
     <t>İP* No</t>
   </si>
   <si>
-    <t>291,5 </t>
-  </si>
-  <si>
     <t>İHA Olası Gövde Malzemeleri</t>
   </si>
   <si>
@@ -151,9 +151,6 @@
     <t xml:space="preserve">Sol Arka Motor (Emax RS2205)  </t>
   </si>
   <si>
-    <t>4 in 1  ESC (Racerstar REV35)</t>
-  </si>
-  <si>
     <t>RF Alıcı (FlySky FS-I6AB)</t>
   </si>
   <si>
@@ -169,51 +166,21 @@
     <t>GPS Modülü (M8N)</t>
   </si>
   <si>
-    <t>Görev Mekanizması Motor (MG90S)</t>
-  </si>
-  <si>
-    <t>1. Görev</t>
-  </si>
-  <si>
-    <t>2.Görev</t>
-  </si>
-  <si>
     <t>Kalkış Ağırlığı</t>
   </si>
   <si>
     <t>Uçuş Hızı</t>
   </si>
   <si>
-    <t>Yük Ağırlığı</t>
-  </si>
-  <si>
     <t>Uçuş Tipi</t>
   </si>
   <si>
     <t>Uçuş Süresi</t>
   </si>
   <si>
-    <t>0 gram</t>
-  </si>
-  <si>
-    <t>330 gram</t>
-  </si>
-  <si>
-    <t>70 Km/Saat</t>
-  </si>
-  <si>
-    <t>60 Km/Saat</t>
-  </si>
-  <si>
     <t>Otonom</t>
   </si>
   <si>
-    <t>1,5 Dakika</t>
-  </si>
-  <si>
-    <t>2 Dakika</t>
-  </si>
-  <si>
     <t>ABS</t>
   </si>
   <si>
@@ -583,10 +550,31 @@
     <t>İHA'nın Planlanan Uçuş Parametreleri</t>
   </si>
   <si>
+    <t>1500 gram</t>
+  </si>
+  <si>
+    <t>Görev Mekanizması Motor (SG90)</t>
+  </si>
+  <si>
+    <t>4 in 1 ESC (Racerstar REV35)</t>
+  </si>
+  <si>
+    <t>Pusula</t>
+  </si>
+  <si>
+    <t>İniş Ayakları Montaj Parçaları</t>
+  </si>
+  <si>
+    <t>Şasi</t>
+  </si>
+  <si>
+    <t>Görev Mekanizması (SG90 dahil değildir)</t>
+  </si>
+  <si>
+    <t>Yüksüz Ağırlığı</t>
+  </si>
+  <si>
     <t>1200 gram</t>
-  </si>
-  <si>
-    <t>1500 gram</t>
   </si>
 </sst>
 </file>
@@ -631,12 +619,6 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -695,62 +677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -764,12 +690,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -779,6 +699,75 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -980,13 +969,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,11 +990,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,8 +1003,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,105 +1024,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1135,50 +1044,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1845,7 +1816,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,63 +1834,63 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>171</v>
+      <c r="E1" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="51">
+      <c r="B2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="23">
         <v>1098.32</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>172</v>
+      <c r="E2" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="12">
         <v>109</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>173</v>
+      <c r="E3" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17">
+      <c r="B4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>180</v>
+      <c r="E4" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="5"/>
@@ -1934,15 +1905,15 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="54">
+      <c r="B5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="26">
         <v>2</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>177</v>
+      <c r="E5" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="5"/>
@@ -1957,15 +1928,15 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="55">
+      <c r="B6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="27">
         <v>2</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>179</v>
+      <c r="E6" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="5"/>
@@ -1980,10 +1951,10 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1997,10 +1968,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="2"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2014,10 +1985,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="2"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2031,10 +2002,10 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2048,10 +2019,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="3"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2065,39 +2036,39 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="13"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2118,413 +2089,541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D8283-7B8C-49E3-8066-CA0537BE067C}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="27" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="34" customWidth="1"/>
+    <col min="4" max="27" width="4.28515625" style="34" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="58"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="6">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="39"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="41">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="41">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="41">
         <v>5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="41">
         <v>6</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="41">
         <v>7</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="41">
         <v>8</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="41">
         <v>9</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="41">
         <v>10</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="41">
         <v>11</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="41">
         <v>12</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="41">
         <v>13</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="41">
         <v>14</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="41">
         <v>15</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="41">
         <v>16</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="41">
         <v>17</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="41">
         <v>18</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="41">
         <v>19</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="41">
         <v>20</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="41">
         <v>21</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="41">
         <v>22</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="41">
         <v>23</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="41">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="AB2" s="39"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="39"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="39"/>
+    </row>
+    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="39"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="39"/>
+    </row>
+    <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="39"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="39"/>
+    </row>
+    <row r="9" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="39"/>
+    </row>
+    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="43">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="39"/>
+    </row>
+    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+    </row>
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2539,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF38C121-F479-40FB-BFFC-C3A63D4BAC97}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,767 +2649,873 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="6" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
     <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="40.42578125" customWidth="1"/>
+    <col min="13" max="13" width="41.85546875" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="A1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="B2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="43">
         <v>29</v>
       </c>
-      <c r="D2" s="25">
-        <v>143</v>
-      </c>
-      <c r="E2" s="25">
-        <v>86</v>
-      </c>
-      <c r="F2" s="25">
-        <v>13.5</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="D2" s="43">
+        <v>130.35</v>
+      </c>
+      <c r="E2" s="43">
+        <v>61</v>
+      </c>
+      <c r="F2" s="43">
+        <v>82.75</v>
+      </c>
+      <c r="G2" s="44"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="25">
+      <c r="B3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="43">
         <v>29</v>
       </c>
-      <c r="D3" s="25">
-        <v>143</v>
-      </c>
-      <c r="E3" s="25">
-        <v>86</v>
-      </c>
-      <c r="F3" s="25">
-        <v>13.5</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="D3" s="43">
+        <v>130.35</v>
+      </c>
+      <c r="E3" s="43">
+        <v>61</v>
+      </c>
+      <c r="F3" s="43">
+        <v>82.75</v>
+      </c>
+      <c r="G3" s="44"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="25">
+      <c r="B4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="43">
         <v>29</v>
       </c>
-      <c r="D4" s="25">
-        <v>143</v>
-      </c>
-      <c r="E4" s="25">
-        <v>86</v>
-      </c>
-      <c r="F4" s="25">
-        <v>13.5</v>
-      </c>
-      <c r="G4" s="4"/>
+      <c r="D4" s="43">
+        <v>130.35</v>
+      </c>
+      <c r="E4" s="43">
+        <v>61</v>
+      </c>
+      <c r="F4" s="43">
+        <v>82.75</v>
+      </c>
+      <c r="G4" s="44"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="43">
         <v>29</v>
       </c>
-      <c r="D5" s="25">
-        <v>143</v>
-      </c>
-      <c r="E5" s="25">
-        <v>86</v>
-      </c>
-      <c r="F5" s="25">
-        <v>13.5</v>
-      </c>
-      <c r="G5" s="4"/>
+      <c r="D5" s="43">
+        <v>130.35</v>
+      </c>
+      <c r="E5" s="43">
+        <v>61</v>
+      </c>
+      <c r="F5" s="43">
+        <v>82.75</v>
+      </c>
+      <c r="G5" s="44"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="25">
-        <v>18</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="B6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="43">
+        <v>10</v>
+      </c>
+      <c r="D6" s="43">
         <v>0</v>
       </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="E6" s="43">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F6" s="43">
+        <v>4</v>
+      </c>
+      <c r="G6" s="44"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="25">
-        <v>13</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="B7" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="43">
+        <v>12</v>
+      </c>
+      <c r="D7" s="43">
         <v>0</v>
       </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="E7" s="43">
+        <v>64.8</v>
+      </c>
+      <c r="F7" s="43">
+        <v>4</v>
+      </c>
+      <c r="G7" s="44"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="45">
         <v>14.9</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="43">
         <v>0</v>
       </c>
-      <c r="E8" s="25">
-        <v>63.5</v>
-      </c>
-      <c r="F8" s="25">
-        <v>16.5</v>
-      </c>
-      <c r="G8" s="4"/>
+      <c r="E8" s="43">
+        <v>61.2</v>
+      </c>
+      <c r="F8" s="43">
+        <v>23.5</v>
+      </c>
+      <c r="G8" s="44"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="43">
+        <v>0.65</v>
+      </c>
+      <c r="D9" s="43">
+        <v>14.8</v>
+      </c>
+      <c r="E9" s="43">
+        <v>59</v>
+      </c>
+      <c r="F9" s="43">
+        <v>31.8</v>
+      </c>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="43">
+        <v>11</v>
+      </c>
+      <c r="D10" s="43">
+        <v>0</v>
+      </c>
+      <c r="E10" s="43">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F10" s="43">
+        <v>83.5</v>
+      </c>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="43">
+        <v>323</v>
+      </c>
+      <c r="D11" s="43">
+        <v>0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>4</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C12" s="43">
+        <v>19</v>
+      </c>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="43">
+        <v>68</v>
+      </c>
+      <c r="F12" s="43">
+        <v>70.7</v>
+      </c>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>11</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="43">
+        <v>5</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0</v>
+      </c>
+      <c r="E13" s="43">
+        <v>214</v>
+      </c>
+      <c r="F13" s="43">
+        <v>16.3</v>
+      </c>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="43">
+        <v>10</v>
+      </c>
+      <c r="D14" s="43">
+        <v>43</v>
+      </c>
+      <c r="E14" s="43">
+        <v>25.3</v>
+      </c>
+      <c r="F14" s="43">
+        <v>22</v>
+      </c>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>13</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="43">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D15" s="43">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>57.5</v>
+      </c>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>14</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="43">
+        <v>34</v>
+      </c>
+      <c r="D16" s="43">
+        <v>25</v>
+      </c>
+      <c r="E16" s="43">
+        <v>59</v>
+      </c>
+      <c r="F16" s="43">
+        <v>33.85</v>
+      </c>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>15</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="43">
+        <v>60.8</v>
+      </c>
+      <c r="D17" s="43">
+        <v>88.3</v>
+      </c>
+      <c r="E17" s="43">
+        <v>47</v>
+      </c>
+      <c r="F17" s="43">
+        <v>54.5</v>
+      </c>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>16</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="43">
+        <v>60.8</v>
+      </c>
+      <c r="D18" s="43">
+        <v>88.3</v>
+      </c>
+      <c r="E18" s="43">
+        <v>47</v>
+      </c>
+      <c r="F18" s="43">
+        <v>54.5</v>
+      </c>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>17</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="47">
+        <v>5.5</v>
+      </c>
+      <c r="D19" s="43">
+        <v>83.8</v>
+      </c>
+      <c r="E19" s="43">
+        <v>76.8</v>
+      </c>
+      <c r="F19" s="43">
+        <v>106.5</v>
+      </c>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>18</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="43">
+        <v>5.5</v>
+      </c>
+      <c r="D20" s="43">
+        <v>83.8</v>
+      </c>
+      <c r="E20" s="43">
+        <v>76.8</v>
+      </c>
+      <c r="F20" s="43">
+        <v>106.5</v>
+      </c>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>19</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="43">
+        <v>5.5</v>
+      </c>
+      <c r="D21" s="43">
+        <v>83.8</v>
+      </c>
+      <c r="E21" s="43">
+        <v>76.8</v>
+      </c>
+      <c r="F21" s="43">
+        <v>106.5</v>
+      </c>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>20</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="43">
+        <v>5.5</v>
+      </c>
+      <c r="D22" s="43">
+        <v>83.8</v>
+      </c>
+      <c r="E22" s="43">
+        <v>76.8</v>
+      </c>
+      <c r="F22" s="43">
+        <v>106.5</v>
+      </c>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K32" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K33" s="29">
+        <v>1</v>
+      </c>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="N33" s="30">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="O33" s="30">
+        <v>1</v>
+      </c>
+      <c r="P33" s="30">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K34" s="29">
+        <v>2</v>
+      </c>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" s="30">
+        <v>34</v>
+      </c>
+      <c r="O34" s="30">
+        <v>1</v>
+      </c>
+      <c r="P34" s="30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K35" s="29">
+        <v>3</v>
+      </c>
+      <c r="L35" s="30"/>
+      <c r="M35" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="N35" s="30">
+        <v>60.8</v>
+      </c>
+      <c r="O35" s="30">
+        <v>2</v>
+      </c>
+      <c r="P35" s="30">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K36" s="29">
+        <v>3</v>
+      </c>
+      <c r="L36" s="30"/>
+      <c r="M36" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36" s="30">
+        <v>29</v>
+      </c>
+      <c r="O36" s="30">
+        <v>4</v>
+      </c>
+      <c r="P36" s="30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K37" s="29">
+        <v>4</v>
+      </c>
+      <c r="L37" s="30"/>
+      <c r="M37" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="30">
+        <v>10</v>
+      </c>
+      <c r="O37" s="30">
+        <v>1</v>
+      </c>
+      <c r="P37" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K38" s="29">
+        <v>5</v>
+      </c>
+      <c r="L38" s="30"/>
+      <c r="M38" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="N38" s="30">
+        <v>12</v>
+      </c>
+      <c r="O38" s="30">
+        <v>1</v>
+      </c>
+      <c r="P38" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K39" s="29">
+        <v>6</v>
+      </c>
+      <c r="L39" s="30"/>
+      <c r="M39" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="31">
+        <v>14.9</v>
+      </c>
+      <c r="O39" s="30">
+        <v>1</v>
+      </c>
+      <c r="P39" s="31">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="40" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K40" s="29">
+        <v>7</v>
+      </c>
+      <c r="L40" s="30"/>
+      <c r="M40" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="30">
         <v>0.65</v>
       </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
-        <v>61.7</v>
-      </c>
-      <c r="F9" s="25">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="O40" s="30">
+        <v>1</v>
+      </c>
+      <c r="P40" s="30">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="41" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K41" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="25">
-        <v>3</v>
-      </c>
-      <c r="D10" s="25">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E10" s="25">
-        <v>44</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="L41" s="30"/>
+      <c r="M41" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="N41" s="30">
+        <v>11</v>
+      </c>
+      <c r="O41" s="30">
+        <v>1</v>
+      </c>
+      <c r="P41" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K42" s="29">
+        <v>9</v>
+      </c>
+      <c r="L42" s="30"/>
+      <c r="M42" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N42" s="30">
+        <v>323</v>
+      </c>
+      <c r="O42" s="30">
+        <v>1</v>
+      </c>
+      <c r="P42" s="30">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K43" s="29">
+        <v>10</v>
+      </c>
+      <c r="L43" s="30"/>
+      <c r="M43" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="30">
+        <v>19</v>
+      </c>
+      <c r="O43" s="30">
+        <v>1</v>
+      </c>
+      <c r="P43" s="30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K44" s="29">
+        <v>11</v>
+      </c>
+      <c r="L44" s="30"/>
+      <c r="M44" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="30">
+        <v>5</v>
+      </c>
+      <c r="O44" s="30">
+        <v>1</v>
+      </c>
+      <c r="P44" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K45" s="29">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="L45" s="30"/>
+      <c r="M45" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="N45" s="30">
+        <v>10</v>
+      </c>
+      <c r="O45" s="30">
+        <v>1</v>
+      </c>
+      <c r="P45" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K46" s="29">
+        <v>13</v>
+      </c>
+      <c r="L46" s="30"/>
+      <c r="M46" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="N46" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="O46" s="32">
+        <v>4</v>
+      </c>
+      <c r="P46" s="32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K47" s="29">
+        <v>14</v>
+      </c>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" s="32">
+        <v>147</v>
+      </c>
+      <c r="O47" s="32">
+        <v>1</v>
+      </c>
+      <c r="P47" s="32">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K48" s="29">
+        <v>15</v>
+      </c>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="N48" s="32">
+        <v>2</v>
+      </c>
+      <c r="O48" s="32">
+        <v>1</v>
+      </c>
+      <c r="P48" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K49" s="29">
+        <v>16</v>
+      </c>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="N49" s="32">
         <v>9</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1.8</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
-        <v>10</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="25">
-        <v>10</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0</v>
-      </c>
-      <c r="E12" s="25">
-        <v>40</v>
-      </c>
-      <c r="F12" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
-        <v>11</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="25">
-        <v>5</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0</v>
-      </c>
-      <c r="E13" s="25">
-        <v>99.6</v>
-      </c>
-      <c r="F13" s="25">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
-        <v>12</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="D14" s="25">
-        <v>50.8</v>
-      </c>
-      <c r="E14" s="25">
-        <v>22.1</v>
-      </c>
-      <c r="F14" s="25">
-        <v>72.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
-        <v>13</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="25">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
-        <v>14</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="25">
-        <v>60</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0</v>
-      </c>
-      <c r="E16" s="25">
-        <v>9.5</v>
-      </c>
-      <c r="F16" s="25">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
-        <v>15</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="25">
-        <v>60.8</v>
-      </c>
-      <c r="D17" s="25">
-        <v>136.19999999999999</v>
-      </c>
-      <c r="E17" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="F17" s="25">
-        <v>64</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
-        <v>16</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="25">
-        <v>60.8</v>
-      </c>
-      <c r="D18" s="25">
-        <v>136.19999999999999</v>
-      </c>
-      <c r="E18" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="25">
-        <v>64</v>
-      </c>
-      <c r="K18" s="45">
-        <v>1</v>
-      </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="N18" s="25">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="O18" s="25">
-        <v>1</v>
-      </c>
-      <c r="P18" s="25">
-        <v>74.900000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
-        <v>17</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="46">
-        <v>5.5</v>
-      </c>
-      <c r="D19" s="25">
-        <v>143</v>
-      </c>
-      <c r="E19" s="25">
-        <v>86</v>
-      </c>
-      <c r="F19" s="25">
-        <v>31.5</v>
-      </c>
-      <c r="K19" s="45">
-        <v>2</v>
-      </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="25">
-        <v>60</v>
-      </c>
-      <c r="O19" s="25">
-        <v>1</v>
-      </c>
-      <c r="P19" s="25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
-        <v>18</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="D20" s="25">
-        <v>143</v>
-      </c>
-      <c r="E20" s="25">
-        <v>86</v>
-      </c>
-      <c r="F20" s="25">
-        <v>31.5</v>
-      </c>
-      <c r="K20" s="45">
-        <v>3</v>
-      </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="N20" s="25">
-        <v>60.8</v>
-      </c>
-      <c r="O20" s="25">
-        <v>2</v>
-      </c>
-      <c r="P20" s="25">
-        <v>121.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
-        <v>19</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="D21" s="25">
-        <v>143</v>
-      </c>
-      <c r="E21" s="25">
-        <v>86</v>
-      </c>
-      <c r="F21" s="25">
-        <v>31.5</v>
-      </c>
-      <c r="K21" s="45">
-        <v>3</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="25">
-        <v>29</v>
-      </c>
-      <c r="O21" s="25">
+      <c r="O49" s="32">
         <v>4</v>
       </c>
-      <c r="P21" s="25">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
-        <v>20</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="D22" s="25">
-        <v>143</v>
-      </c>
-      <c r="E22" s="25">
-        <v>86</v>
-      </c>
-      <c r="F22" s="25">
-        <v>31.5</v>
-      </c>
-      <c r="K22" s="45">
-        <v>4</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="25">
-        <v>18</v>
-      </c>
-      <c r="O22" s="25">
-        <v>1</v>
-      </c>
-      <c r="P22" s="25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="K23" s="45">
-        <v>5</v>
-      </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="25">
-        <v>13</v>
-      </c>
-      <c r="O23" s="25">
-        <v>1</v>
-      </c>
-      <c r="P23" s="25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="K24" s="45">
-        <v>6</v>
-      </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="14">
-        <v>14.9</v>
-      </c>
-      <c r="O24" s="25">
-        <v>1</v>
-      </c>
-      <c r="P24" s="14">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="K25" s="45">
-        <v>7</v>
-      </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="25">
-        <v>0.65</v>
-      </c>
-      <c r="O25" s="25">
-        <v>1</v>
-      </c>
-      <c r="P25" s="25">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="K26" s="45">
-        <v>8</v>
-      </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="25">
-        <v>3</v>
-      </c>
-      <c r="O26" s="25">
-        <v>1</v>
-      </c>
-      <c r="P26" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="K27" s="45">
-        <v>9</v>
-      </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="25">
-        <v>1</v>
-      </c>
-      <c r="P27" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="26"/>
-      <c r="K28" s="45">
-        <v>10</v>
-      </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="25">
-        <v>10</v>
-      </c>
-      <c r="O28" s="25">
-        <v>1</v>
-      </c>
-      <c r="P28" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="26"/>
-      <c r="K29" s="45">
-        <v>11</v>
-      </c>
-      <c r="L29" s="25"/>
-      <c r="M29" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="25">
-        <v>5</v>
-      </c>
-      <c r="O29" s="25">
-        <v>1</v>
-      </c>
-      <c r="P29" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="K30" s="45">
-        <v>12</v>
-      </c>
-      <c r="L30" s="25"/>
-      <c r="M30" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="25">
-        <v>12.1</v>
-      </c>
-      <c r="O30" s="25">
-        <v>1</v>
-      </c>
-      <c r="P30" s="25">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K31" s="45">
-        <v>13</v>
-      </c>
-      <c r="L31" s="25"/>
-      <c r="M31" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="N31" s="46">
-        <v>5.5</v>
-      </c>
-      <c r="O31" s="46">
-        <v>4</v>
-      </c>
-      <c r="P31" s="46">
-        <v>22</v>
+      <c r="P49" s="32">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3529,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,85 +3539,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="C2" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="25">
+      <c r="A3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="43">
         <v>2</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="43">
         <v>4</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="43">
         <v>2</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="43">
         <v>4</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="43">
         <v>5</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="43">
         <f>SUM(B3:F3)</f>
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="25">
+      <c r="A4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="43">
         <v>5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="43">
         <v>2</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="43">
         <v>5</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="43">
         <v>5</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="43">
         <v>2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="43">
         <f>SUM(B4:F4)</f>
         <v>19</v>
       </c>
@@ -3428,10 +3633,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A43772-EE52-4DD4-82DB-D5FF20CC3876}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3444,332 +3649,649 @@
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="25">
+    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="43">
         <v>3</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="43">
         <v>3</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="43">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="43">
         <v>4</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="43">
         <v>3</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="43">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="43">
         <v>5</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="43">
         <v>2</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="43">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="25">
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="43">
         <v>5</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="43">
         <v>3</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="43">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="53">
         <f>SUM(B4:B7)</f>
         <v>17</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="54">
         <f>SUM(C4:C7)</f>
         <v>11</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="55">
         <f>SUM(D4:D7)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="K18" s="58">
+        <v>2300</v>
+      </c>
+      <c r="L18" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="M18" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="25" t="s">
+    </row>
+    <row r="19" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="59">
+        <v>2800</v>
+      </c>
+      <c r="L19" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="60">
+        <v>700</v>
+      </c>
+      <c r="L20" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="59">
+        <v>900</v>
+      </c>
+      <c r="L21" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="58">
+        <v>4000</v>
+      </c>
+      <c r="L26" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" s="59">
+        <v>8000</v>
+      </c>
+      <c r="L27" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="60">
+        <v>6000</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="59">
+        <v>1300</v>
+      </c>
+      <c r="L29" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="17" spans="9:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="M17" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I18" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="42">
-        <v>2300</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="9:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I19" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="39">
-        <v>2800</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="40">
-        <v>700</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" s="40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I21" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="39">
-        <v>900</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="9:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="I25" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="9:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="42" t="s">
+      <c r="M29" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="42">
-        <v>4000</v>
-      </c>
-      <c r="L26" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="M26" s="42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I27" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K27" s="35">
-        <v>8000</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="M27" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I28" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="36">
-        <v>6000</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I29" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29" s="35">
-        <v>1300</v>
-      </c>
-      <c r="L29" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="M29" s="35" t="s">
-        <v>117</v>
-      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3786,123 +4308,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B213EC-620B-4C17-AB42-34AFF45E29FE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="B6" s="61"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3913,7 +4412,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3923,83 +4422,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="64"/>
+      <c r="A1" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>170</v>
+      <c r="A2" s="51"/>
+      <c r="B2" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="25">
+      <c r="A4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="43">
         <v>4</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="43">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="A5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="43">
         <v>5</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="A6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="43">
         <v>5</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="25">
+      <c r="A7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="43">
         <v>5</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="43">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="53">
         <f>SUM(B4:B7)</f>
         <v>19</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="54">
         <f>SUM(C4:C7)</f>
         <v>18</v>
       </c>
@@ -4017,10 +4516,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BF1004-30CD-4B8C-AB1A-83D0E7E707A4}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4035,172 +4534,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="43">
+        <v>5045</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+    </row>
+    <row r="4" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" s="59">
+        <v>5511450968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="S6" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="T6" s="64">
+        <v>5541542293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="43">
+        <v>3</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="S7" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="T7" s="59">
+        <v>5527315038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="64"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="25">
-        <v>5045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="D10" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1.4</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="28" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="R4" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="R5" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="S5" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="T5" s="48">
-        <v>5511450968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q6" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="R6" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="S6" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="T6" s="49">
-        <v>5541542293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="D15" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="25">
-        <v>3</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="R7" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="S7" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="T7" s="48">
-        <v>5527315038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C9" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="64"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C10" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="25">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>151</v>
-      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
